--- a/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
+++ b/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/CategoriaNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78646972-F38B-434F-8DB7-8B3DC94AE24C}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7138CE-EEA2-4274-9290-D392951DF741}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -265,6 +276,9 @@
   </si>
   <si>
     <t>Informe Consolidado Final del Proyecto</t>
+  </si>
+  <si>
+    <t>Utilidades</t>
   </si>
 </sst>
 </file>
@@ -547,8 +561,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}" name="Tabla1" displayName="Tabla1" ref="A1:G74" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:G74" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}" name="Tabla1" displayName="Tabla1" ref="A1:G75" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:G75" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{115A9EBB-5BAD-4271-B80E-885F0DCBFFF7}" name="id"/>
     <tableColumn id="2" xr3:uid="{90C47675-E299-400A-B78E-8C89E0E72C69}" name="nombre" dataDxfId="0"/>
@@ -825,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2532,6 +2546,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="21">
+        <v>44071</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="E75" s="21">
+        <v>44071</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
+++ b/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/CategoriaNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7138CE-EEA2-4274-9290-D392951DF741}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1320D883-B4B7-4E1C-AFB0-16D9ADF68BF0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -841,15 +841,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="75.36328125" customWidth="1"/>
-    <col min="3" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">

--- a/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
+++ b/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/CategoriaNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1320D883-B4B7-4E1C-AFB0-16D9ADF68BF0}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A9F6AB-5458-4359-98BE-4886601B5490}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -279,6 +279,90 @@
   </si>
   <si>
     <t>Utilidades</t>
+  </si>
+  <si>
+    <t>Maquinaria Costo Directo</t>
+  </si>
+  <si>
+    <t>BULLDOZER 20 TON</t>
+  </si>
+  <si>
+    <t>CAMION ALJIBE 30 M3</t>
+  </si>
+  <si>
+    <t>CAMION GRUA 12 TON</t>
+  </si>
+  <si>
+    <t>CAMION TOLVA 20 M3</t>
+  </si>
+  <si>
+    <t>EXCAVADORA 20 T</t>
+  </si>
+  <si>
+    <t>GRÚA HIDRÁULICA 60 TON</t>
+  </si>
+  <si>
+    <t>MINICARGADOR 3 TON</t>
+  </si>
+  <si>
+    <t>MOTONIVELADORA 18 TON</t>
+  </si>
+  <si>
+    <t>PLACA COMPACTADORA 80 KG</t>
+  </si>
+  <si>
+    <t>RETROEXCAVADORA 8 TON</t>
+  </si>
+  <si>
+    <t>RODILLO COMPACTADOR 12 TON</t>
+  </si>
+  <si>
+    <t>RODILLO DOBLE TAMBOR MANUAL</t>
+  </si>
+  <si>
+    <t>AYUDANTE</t>
+  </si>
+  <si>
+    <t>CAPATAZ</t>
+  </si>
+  <si>
+    <t>MAESTRO 1ERA</t>
+  </si>
+  <si>
+    <t>MAESTRO 2DA</t>
+  </si>
+  <si>
+    <t>OPERADOR BULLDOZER</t>
+  </si>
+  <si>
+    <t>OPERADOR CAMIÓN PLUMA</t>
+  </si>
+  <si>
+    <t>OPERADOR CAMIÓN TOLVA</t>
+  </si>
+  <si>
+    <t>OPERADOR CAMIÓN ALJIBE</t>
+  </si>
+  <si>
+    <t>OPERADOR DE RETROEXCAVADORA</t>
+  </si>
+  <si>
+    <t>OPERADOR EXCAVADORA</t>
+  </si>
+  <si>
+    <t>OPERADOR MOTONIVELADORA</t>
+  </si>
+  <si>
+    <t>OPERADOR MINICARGADOR</t>
+  </si>
+  <si>
+    <t>OPERADOR RODILLO COMPACTADOR</t>
+  </si>
+  <si>
+    <t>RIGGER</t>
+  </si>
+  <si>
+    <t>Mano Obra Costo Directo</t>
   </si>
 </sst>
 </file>
@@ -420,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,6 +551,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,16 +591,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -561,8 +646,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}" name="Tabla1" displayName="Tabla1" ref="A1:G75" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:G75" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}" name="Tabla1" displayName="Tabla1" ref="A1:G103" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:G103" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{115A9EBB-5BAD-4271-B80E-885F0DCBFFF7}" name="id"/>
     <tableColumn id="2" xr3:uid="{90C47675-E299-400A-B78E-8C89E0E72C69}" name="nombre" dataDxfId="0"/>
@@ -839,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2567,6 +2652,645 @@
         <v>0</v>
       </c>
     </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="18">
+        <v>44072</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="E76" s="18">
+        <v>44072</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="21">
+        <v>44073</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>44072</v>
+      </c>
+      <c r="E77" s="21">
+        <v>44073</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="18">
+        <v>44074</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>44072</v>
+      </c>
+      <c r="E78" s="18">
+        <v>44074</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="21">
+        <v>44075</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>44072</v>
+      </c>
+      <c r="E79" s="21">
+        <v>44075</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="18">
+        <v>44076</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>44072</v>
+      </c>
+      <c r="E80" s="18">
+        <v>44076</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="21">
+        <v>44077</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>44072</v>
+      </c>
+      <c r="E81" s="21">
+        <v>44077</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="18">
+        <v>44078</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>44072</v>
+      </c>
+      <c r="E82" s="18">
+        <v>44078</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="21">
+        <v>44079</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>44072</v>
+      </c>
+      <c r="E83" s="21">
+        <v>44079</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="18">
+        <v>44080</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>44072</v>
+      </c>
+      <c r="E84" s="18">
+        <v>44080</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="21">
+        <v>44081</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>44072</v>
+      </c>
+      <c r="E85" s="21">
+        <v>44081</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="18">
+        <v>44082</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>44072</v>
+      </c>
+      <c r="E86" s="18">
+        <v>44082</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="21">
+        <v>44083</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>44072</v>
+      </c>
+      <c r="E87" s="21">
+        <v>44083</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="18">
+        <v>44084</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>44072</v>
+      </c>
+      <c r="E88" s="18">
+        <v>44084</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="21">
+        <v>44085</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E89" s="21">
+        <v>44085</v>
+      </c>
+      <c r="F89" s="24">
+        <v>2</v>
+      </c>
+      <c r="G89" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="18">
+        <v>44086</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E90" s="18">
+        <v>44086</v>
+      </c>
+      <c r="F90" s="24">
+        <v>2</v>
+      </c>
+      <c r="G90" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="21">
+        <v>44087</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E91" s="21">
+        <v>44087</v>
+      </c>
+      <c r="F91" s="24">
+        <v>2</v>
+      </c>
+      <c r="G91" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="18">
+        <v>44088</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E92" s="18">
+        <v>44088</v>
+      </c>
+      <c r="F92" s="24">
+        <v>2</v>
+      </c>
+      <c r="G92" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="21">
+        <v>44089</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E93" s="21">
+        <v>44089</v>
+      </c>
+      <c r="F93" s="24">
+        <v>2</v>
+      </c>
+      <c r="G93" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="18">
+        <v>44090</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E94" s="18">
+        <v>44090</v>
+      </c>
+      <c r="F94" s="24">
+        <v>2</v>
+      </c>
+      <c r="G94" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="21">
+        <v>44091</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E95" s="21">
+        <v>44091</v>
+      </c>
+      <c r="F95" s="24">
+        <v>2</v>
+      </c>
+      <c r="G95" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="18">
+        <v>44092</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E96" s="18">
+        <v>44092</v>
+      </c>
+      <c r="F96" s="24">
+        <v>2</v>
+      </c>
+      <c r="G96" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="21">
+        <v>44093</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E97" s="21">
+        <v>44093</v>
+      </c>
+      <c r="F97" s="24">
+        <v>2</v>
+      </c>
+      <c r="G97" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="18">
+        <v>44094</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E98" s="18">
+        <v>44094</v>
+      </c>
+      <c r="F98" s="24">
+        <v>2</v>
+      </c>
+      <c r="G98" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="21">
+        <v>44095</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E99" s="21">
+        <v>44095</v>
+      </c>
+      <c r="F99" s="24">
+        <v>2</v>
+      </c>
+      <c r="G99" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="18">
+        <v>44096</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E100" s="18">
+        <v>44096</v>
+      </c>
+      <c r="F100" s="24">
+        <v>2</v>
+      </c>
+      <c r="G100" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="21">
+        <v>44097</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E101" s="21">
+        <v>44097</v>
+      </c>
+      <c r="F101" s="24">
+        <v>2</v>
+      </c>
+      <c r="G101" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="18">
+        <v>44098</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102" s="24">
+        <v>44099</v>
+      </c>
+      <c r="E102" s="18">
+        <v>44098</v>
+      </c>
+      <c r="F102" s="24">
+        <v>2</v>
+      </c>
+      <c r="G102" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="21">
+        <v>44099</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="24">
+        <v>5</v>
+      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="21">
+        <v>44099</v>
+      </c>
+      <c r="F103" s="24">
+        <v>1</v>
+      </c>
+      <c r="G103" s="24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
+++ b/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/CategoriaNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A9F6AB-5458-4359-98BE-4886601B5490}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0E5570C-EEF5-4671-9AFB-02F86CCC7C12}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -363,6 +363,261 @@
   </si>
   <si>
     <t>Mano Obra Costo Directo</t>
+  </si>
+  <si>
+    <t>PETROLEO DIESEL</t>
+  </si>
+  <si>
+    <t>LUBRICANTE</t>
+  </si>
+  <si>
+    <t>FLETES EQUIPOS - OBRA (RODADOS)</t>
+  </si>
+  <si>
+    <t>FLETES EQUIPOS - OBRA (CAMA BAJA)</t>
+  </si>
+  <si>
+    <t>FLETES IFA SANTIAGO-OBRA</t>
+  </si>
+  <si>
+    <t>BOMBEO HORMIGON</t>
+  </si>
+  <si>
+    <t>CERCO PERIMETRAL</t>
+  </si>
+  <si>
+    <t>PORTÓN CERCO PERIMETRAL</t>
+  </si>
+  <si>
+    <t>GEOTEXTIL 800 GR/M2</t>
+  </si>
+  <si>
+    <t>MATERIAL GRANULAR - GRAVILLA TMAX 1/2"</t>
+  </si>
+  <si>
+    <t>MATERIAL GRANULAR PRODUCIDO EN OBRA - TERRAPLÉN</t>
+  </si>
+  <si>
+    <t>MATERIAL GRANULAR - PRODUCIDO EN OBRA - RELLENO ESTRUCTURAL</t>
+  </si>
+  <si>
+    <t>BOLONES MAMPOSTERÍA [SUMINISTRO Y TRANSPORTE 30 KM]</t>
+  </si>
+  <si>
+    <t>CANOAS</t>
+  </si>
+  <si>
+    <t>HORMIGÓN G25</t>
+  </si>
+  <si>
+    <t>ACERO A63-42H (CORTADO Y DOBLADO)</t>
+  </si>
+  <si>
+    <t>MOLDAJE METÁLICO</t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>HORMIGÓN G20</t>
+  </si>
+  <si>
+    <t>FUNGINBLES MOLDAJE</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS MENORES MOLDAJE</t>
+  </si>
+  <si>
+    <t>HORMIGÓN G05</t>
+  </si>
+  <si>
+    <t>ALAMBRE NEGRO N°18</t>
+  </si>
+  <si>
+    <t>SEPARADOR (CALUGA)</t>
+  </si>
+  <si>
+    <t>VIBRADOR DE INMERSIÓN</t>
+  </si>
+  <si>
+    <t>SIKACURE</t>
+  </si>
+  <si>
+    <t>MATERIAL GRANULAR - ARENA</t>
+  </si>
+  <si>
+    <t>CAJÓN PREFABRICADO HORMIGÓN 2,00X1,50X2,00ML</t>
+  </si>
+  <si>
+    <t>CAJÓN PREFABRICADO HORMIGÓN 1,00X0.80X2,00M</t>
+  </si>
+  <si>
+    <t>CAJÓN PREFABRICADO HORMIGÓN 1,50X1.00X2,00M</t>
+  </si>
+  <si>
+    <t>PERFIL BUTILICO CAJONES</t>
+  </si>
+  <si>
+    <t>PERNO IZAJE CAJONES</t>
+  </si>
+  <si>
+    <t>REVESTIMIENTO ZANJA PREFABRICADO HORMIGÓN 1.00M</t>
+  </si>
+  <si>
+    <t>MALLA DE ALAMBRE GALVANIZADA 8 X 10 CM (ROLLO 1,8X25 M)</t>
+  </si>
+  <si>
+    <t>BARRERA TIPO F HORMIGÓN PREFABRICADA 3.00M</t>
+  </si>
+  <si>
+    <t>ENROCADO WG=100 KG [SUMINISTRO Y TRANSPORTE 30 KM]</t>
+  </si>
+  <si>
+    <t>FLETE MATERIALES</t>
+  </si>
+  <si>
+    <t>FLETE ENFIERRADURA</t>
+  </si>
+  <si>
+    <t>Materiales Costo Directo</t>
+  </si>
+  <si>
+    <t>SERVICIO MENSUAL DE INTERNET</t>
+  </si>
+  <si>
+    <t>CONSUMOS MATERIALES DE OFICINA</t>
+  </si>
+  <si>
+    <t>INSUMOS TOPOGRAFÍA</t>
+  </si>
+  <si>
+    <t>ESTACIONES TOTAL TOPOGRAFÍA ARRIENDO</t>
+  </si>
+  <si>
+    <t>VALIJA Y CORRESPONDENCIA</t>
+  </si>
+  <si>
+    <t>TELÉFONOS CELULAR</t>
+  </si>
+  <si>
+    <t>RADIO MOTOROLA PERSONAL INDIRECTO</t>
+  </si>
+  <si>
+    <t>RADIO CAMIONETAS</t>
+  </si>
+  <si>
+    <t>COMPUTADORES C/ S.O. Y OFFICE</t>
+  </si>
+  <si>
+    <t>IMPRESORAS INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>IMPRESORA COMÚN</t>
+  </si>
+  <si>
+    <t>LICENCIAS DE SOFTWARE (AUTOCAD/Civil 3d)</t>
+  </si>
+  <si>
+    <t>LICENCIAS DE SOFTWARE (PRIMAVERA)</t>
+  </si>
+  <si>
+    <t>LICENCIAS DE SOFTWARE (PRESTO)</t>
+  </si>
+  <si>
+    <t>LICENCIA PAY ROLL</t>
+  </si>
+  <si>
+    <t>CAMIONETA PICK UP DC</t>
+  </si>
+  <si>
+    <t>CAMION 3/4</t>
+  </si>
+  <si>
+    <t>CAMION PLUMA</t>
+  </si>
+  <si>
+    <t>GRUPOS ELECTROGENOS 350 KVA</t>
+  </si>
+  <si>
+    <t>GRUPOS ELECTROGENOS 100 KVA</t>
+  </si>
+  <si>
+    <t>RETROCARGADORA</t>
+  </si>
+  <si>
+    <t>SERVICIO LIMPIEZA RESPEL</t>
+  </si>
+  <si>
+    <t>LABORATORIO EXTERNO</t>
+  </si>
+  <si>
+    <t>COMBUSTIBLE S/IMP ESP</t>
+  </si>
+  <si>
+    <t>COMBUSTIBLE C/IMP ESP</t>
+  </si>
+  <si>
+    <t>SUMINISTRO AGUA POTABLE (BIDONES 20 LT) (DIRECTO)</t>
+  </si>
+  <si>
+    <t>SUMINISTRO AGUA POTABLE (BIDONES 20LT) (INDIRECTO)</t>
+  </si>
+  <si>
+    <t>VIAJES AEREOS MOI (Santiago-La Serena)</t>
+  </si>
+  <si>
+    <t>SERVICIO DE MINIBUSES (hacia obra)</t>
+  </si>
+  <si>
+    <t>MOI ALOJAMIENTO&amp;ALIMENTACION NAC5X2D</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>JEFE SEGURIDAD Y SALUD OCUPACIONAL (PREVENCIONISTA)</t>
+  </si>
+  <si>
+    <t>JEFE DE CALIDAD Y MEDIO AMBIENTE</t>
+  </si>
+  <si>
+    <t>JEFE DE ADMINISTRACIÓN Y RRHH</t>
+  </si>
+  <si>
+    <t>JEFE DE OFICINA TÉCNICA</t>
+  </si>
+  <si>
+    <t>JEFE DE TERRENO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE OBRAS CIVILES</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE MOVIMIENTO DE TIERRA</t>
+  </si>
+  <si>
+    <t>CONTROL DOCUMENTARIO</t>
+  </si>
+  <si>
+    <t>ASISTENTE DE RRHH</t>
+  </si>
+  <si>
+    <t>BODEGUERO</t>
+  </si>
+  <si>
+    <t>TOPÓGRAFO</t>
+  </si>
+  <si>
+    <t>ALARIFE</t>
+  </si>
+  <si>
+    <t>OPERADOR RETROCARGADORA</t>
+  </si>
+  <si>
+    <t>PALETERO</t>
+  </si>
+  <si>
+    <t>Total Costos Indirectos y Gastos Generales</t>
   </si>
 </sst>
 </file>
@@ -591,16 +846,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -646,8 +901,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}" name="Tabla1" displayName="Tabla1" ref="A1:G103" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:G103" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}" name="Tabla1" displayName="Tabla1" ref="A1:G192" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:G192" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{115A9EBB-5BAD-4271-B80E-885F0DCBFFF7}" name="id"/>
     <tableColumn id="2" xr3:uid="{90C47675-E299-400A-B78E-8C89E0E72C69}" name="nombre" dataDxfId="0"/>
@@ -924,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2958,16 +3213,16 @@
       <c r="C89">
         <v>5</v>
       </c>
-      <c r="D89" s="24">
+      <c r="D89">
         <v>44099</v>
       </c>
       <c r="E89" s="21">
         <v>44085</v>
       </c>
-      <c r="F89" s="24">
-        <v>2</v>
-      </c>
-      <c r="G89" s="24">
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
         <v>1</v>
       </c>
     </row>
@@ -2981,16 +3236,16 @@
       <c r="C90">
         <v>5</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90">
         <v>44099</v>
       </c>
       <c r="E90" s="18">
         <v>44086</v>
       </c>
-      <c r="F90" s="24">
-        <v>2</v>
-      </c>
-      <c r="G90" s="24">
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
         <v>1</v>
       </c>
     </row>
@@ -3004,16 +3259,16 @@
       <c r="C91">
         <v>5</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91">
         <v>44099</v>
       </c>
       <c r="E91" s="21">
         <v>44087</v>
       </c>
-      <c r="F91" s="24">
-        <v>2</v>
-      </c>
-      <c r="G91" s="24">
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
         <v>1</v>
       </c>
     </row>
@@ -3027,16 +3282,16 @@
       <c r="C92">
         <v>5</v>
       </c>
-      <c r="D92" s="24">
+      <c r="D92">
         <v>44099</v>
       </c>
       <c r="E92" s="18">
         <v>44088</v>
       </c>
-      <c r="F92" s="24">
-        <v>2</v>
-      </c>
-      <c r="G92" s="24">
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
         <v>1</v>
       </c>
     </row>
@@ -3050,16 +3305,16 @@
       <c r="C93">
         <v>5</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93">
         <v>44099</v>
       </c>
       <c r="E93" s="21">
         <v>44089</v>
       </c>
-      <c r="F93" s="24">
-        <v>2</v>
-      </c>
-      <c r="G93" s="24">
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
         <v>1</v>
       </c>
     </row>
@@ -3073,16 +3328,16 @@
       <c r="C94">
         <v>5</v>
       </c>
-      <c r="D94" s="24">
+      <c r="D94">
         <v>44099</v>
       </c>
       <c r="E94" s="18">
         <v>44090</v>
       </c>
-      <c r="F94" s="24">
-        <v>2</v>
-      </c>
-      <c r="G94" s="24">
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
         <v>1</v>
       </c>
     </row>
@@ -3096,16 +3351,16 @@
       <c r="C95">
         <v>5</v>
       </c>
-      <c r="D95" s="24">
+      <c r="D95">
         <v>44099</v>
       </c>
       <c r="E95" s="21">
         <v>44091</v>
       </c>
-      <c r="F95" s="24">
-        <v>2</v>
-      </c>
-      <c r="G95" s="24">
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
         <v>1</v>
       </c>
     </row>
@@ -3119,16 +3374,16 @@
       <c r="C96">
         <v>5</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96">
         <v>44099</v>
       </c>
       <c r="E96" s="18">
         <v>44092</v>
       </c>
-      <c r="F96" s="24">
-        <v>2</v>
-      </c>
-      <c r="G96" s="24">
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
         <v>1</v>
       </c>
     </row>
@@ -3142,16 +3397,16 @@
       <c r="C97">
         <v>5</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97">
         <v>44099</v>
       </c>
       <c r="E97" s="21">
         <v>44093</v>
       </c>
-      <c r="F97" s="24">
-        <v>2</v>
-      </c>
-      <c r="G97" s="24">
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
         <v>1</v>
       </c>
     </row>
@@ -3165,16 +3420,16 @@
       <c r="C98">
         <v>5</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98">
         <v>44099</v>
       </c>
       <c r="E98" s="18">
         <v>44094</v>
       </c>
-      <c r="F98" s="24">
-        <v>2</v>
-      </c>
-      <c r="G98" s="24">
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
         <v>1</v>
       </c>
     </row>
@@ -3188,16 +3443,16 @@
       <c r="C99">
         <v>5</v>
       </c>
-      <c r="D99" s="24">
+      <c r="D99">
         <v>44099</v>
       </c>
       <c r="E99" s="21">
         <v>44095</v>
       </c>
-      <c r="F99" s="24">
-        <v>2</v>
-      </c>
-      <c r="G99" s="24">
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
         <v>1</v>
       </c>
     </row>
@@ -3211,16 +3466,16 @@
       <c r="C100">
         <v>5</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100">
         <v>44099</v>
       </c>
       <c r="E100" s="18">
         <v>44096</v>
       </c>
-      <c r="F100" s="24">
-        <v>2</v>
-      </c>
-      <c r="G100" s="24">
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
         <v>1</v>
       </c>
     </row>
@@ -3234,16 +3489,16 @@
       <c r="C101">
         <v>5</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101">
         <v>44099</v>
       </c>
       <c r="E101" s="21">
         <v>44097</v>
       </c>
-      <c r="F101" s="24">
-        <v>2</v>
-      </c>
-      <c r="G101" s="24">
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
         <v>1</v>
       </c>
     </row>
@@ -3257,16 +3512,16 @@
       <c r="C102">
         <v>5</v>
       </c>
-      <c r="D102" s="24">
+      <c r="D102">
         <v>44099</v>
       </c>
       <c r="E102" s="18">
         <v>44098</v>
       </c>
-      <c r="F102" s="24">
-        <v>2</v>
-      </c>
-      <c r="G102" s="24">
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
         <v>1</v>
       </c>
     </row>
@@ -3277,18 +3532,2058 @@
       <c r="B103" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="24">
-        <v>5</v>
-      </c>
-      <c r="D103" s="24"/>
+      <c r="C103">
+        <v>5</v>
+      </c>
       <c r="E103" s="21">
         <v>44099</v>
       </c>
-      <c r="F103" s="24">
+      <c r="F103">
         <v>1</v>
       </c>
-      <c r="G103" s="24">
+      <c r="G103">
         <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="18">
+        <v>44100</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="E104" s="18">
+        <v>44100</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="21">
+        <v>44101</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>44100</v>
+      </c>
+      <c r="E105" s="21">
+        <v>44101</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="18">
+        <v>44102</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>44100</v>
+      </c>
+      <c r="E106" s="18">
+        <v>44102</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="21">
+        <v>44103</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>44100</v>
+      </c>
+      <c r="E107" s="21">
+        <v>44103</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="18">
+        <v>44104</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>44100</v>
+      </c>
+      <c r="E108" s="18">
+        <v>44104</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="21">
+        <v>44105</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>44100</v>
+      </c>
+      <c r="E109" s="21">
+        <v>44105</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="18">
+        <v>44106</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>44100</v>
+      </c>
+      <c r="E110" s="18">
+        <v>44106</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="21">
+        <v>44107</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>44100</v>
+      </c>
+      <c r="E111" s="21">
+        <v>44107</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="18">
+        <v>44108</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>44100</v>
+      </c>
+      <c r="E112" s="18">
+        <v>44108</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="21">
+        <v>44109</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>44100</v>
+      </c>
+      <c r="E113" s="21">
+        <v>44109</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="18">
+        <v>44110</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>44100</v>
+      </c>
+      <c r="E114" s="18">
+        <v>44110</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="21">
+        <v>44111</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>44100</v>
+      </c>
+      <c r="E115" s="21">
+        <v>44111</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="18">
+        <v>44112</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>44100</v>
+      </c>
+      <c r="E116" s="18">
+        <v>44112</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="21">
+        <v>44113</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>44100</v>
+      </c>
+      <c r="E117" s="21">
+        <v>44113</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="18">
+        <v>44114</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>44100</v>
+      </c>
+      <c r="E118" s="18">
+        <v>44114</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="21">
+        <v>44115</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>44100</v>
+      </c>
+      <c r="E119" s="21">
+        <v>44115</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="18">
+        <v>44116</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>44100</v>
+      </c>
+      <c r="E120" s="18">
+        <v>44116</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="21">
+        <v>44117</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>44100</v>
+      </c>
+      <c r="E121" s="21">
+        <v>44117</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="18">
+        <v>44118</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>44100</v>
+      </c>
+      <c r="E122" s="18">
+        <v>44118</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="21">
+        <v>44119</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>44100</v>
+      </c>
+      <c r="E123" s="21">
+        <v>44119</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="18">
+        <v>44120</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>44100</v>
+      </c>
+      <c r="E124" s="18">
+        <v>44120</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="21">
+        <v>44121</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>44100</v>
+      </c>
+      <c r="E125" s="21">
+        <v>44121</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="18">
+        <v>44122</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>44100</v>
+      </c>
+      <c r="E126" s="18">
+        <v>44122</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="21">
+        <v>44123</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>44100</v>
+      </c>
+      <c r="E127" s="21">
+        <v>44123</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="18">
+        <v>44124</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>44100</v>
+      </c>
+      <c r="E128" s="18">
+        <v>44124</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="21">
+        <v>44125</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>44100</v>
+      </c>
+      <c r="E129" s="21">
+        <v>44125</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="18">
+        <v>44126</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>44100</v>
+      </c>
+      <c r="E130" s="18">
+        <v>44126</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="21">
+        <v>44127</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>44100</v>
+      </c>
+      <c r="E131" s="21">
+        <v>44127</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="18">
+        <v>44128</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>44100</v>
+      </c>
+      <c r="E132" s="18">
+        <v>44128</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="21">
+        <v>44129</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>44100</v>
+      </c>
+      <c r="E133" s="21">
+        <v>44129</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="18">
+        <v>44130</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>44100</v>
+      </c>
+      <c r="E134" s="18">
+        <v>44130</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="21">
+        <v>44131</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>44100</v>
+      </c>
+      <c r="E135" s="21">
+        <v>44131</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="18">
+        <v>44132</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>44100</v>
+      </c>
+      <c r="E136" s="18">
+        <v>44132</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="21">
+        <v>44133</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>44100</v>
+      </c>
+      <c r="E137" s="21">
+        <v>44133</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="18">
+        <v>44134</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>44100</v>
+      </c>
+      <c r="E138" s="18">
+        <v>44134</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="21">
+        <v>44135</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>44100</v>
+      </c>
+      <c r="E139" s="21">
+        <v>44135</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="18">
+        <v>44136</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>44100</v>
+      </c>
+      <c r="E140" s="18">
+        <v>44136</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="21">
+        <v>44137</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>44100</v>
+      </c>
+      <c r="E141" s="21">
+        <v>44137</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="18">
+        <v>44138</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>44100</v>
+      </c>
+      <c r="E142" s="18">
+        <v>44138</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="21">
+        <v>44139</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="E143" s="21">
+        <v>44139</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="18">
+        <v>44140</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E144" s="18">
+        <v>44140</v>
+      </c>
+      <c r="F144" s="24">
+        <v>2</v>
+      </c>
+      <c r="G144" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="21">
+        <v>44141</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E145" s="21">
+        <v>44141</v>
+      </c>
+      <c r="F145" s="24">
+        <v>2</v>
+      </c>
+      <c r="G145" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="18">
+        <v>44142</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E146" s="18">
+        <v>44142</v>
+      </c>
+      <c r="F146" s="24">
+        <v>2</v>
+      </c>
+      <c r="G146" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="21">
+        <v>44143</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E147" s="21">
+        <v>44143</v>
+      </c>
+      <c r="F147" s="24">
+        <v>2</v>
+      </c>
+      <c r="G147" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="18">
+        <v>44144</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E148" s="18">
+        <v>44144</v>
+      </c>
+      <c r="F148" s="24">
+        <v>2</v>
+      </c>
+      <c r="G148" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="21">
+        <v>44145</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E149" s="21">
+        <v>44145</v>
+      </c>
+      <c r="F149" s="24">
+        <v>2</v>
+      </c>
+      <c r="G149" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="18">
+        <v>44146</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E150" s="18">
+        <v>44146</v>
+      </c>
+      <c r="F150" s="24">
+        <v>2</v>
+      </c>
+      <c r="G150" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="21">
+        <v>44147</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E151" s="21">
+        <v>44147</v>
+      </c>
+      <c r="F151" s="24">
+        <v>2</v>
+      </c>
+      <c r="G151" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="18">
+        <v>44148</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E152" s="18">
+        <v>44148</v>
+      </c>
+      <c r="F152" s="24">
+        <v>2</v>
+      </c>
+      <c r="G152" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="21">
+        <v>44149</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="D153" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E153" s="21">
+        <v>44149</v>
+      </c>
+      <c r="F153" s="24">
+        <v>2</v>
+      </c>
+      <c r="G153" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="18">
+        <v>44150</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+      <c r="D154" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E154" s="18">
+        <v>44150</v>
+      </c>
+      <c r="F154" s="24">
+        <v>2</v>
+      </c>
+      <c r="G154" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="21">
+        <v>44151</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E155" s="21">
+        <v>44151</v>
+      </c>
+      <c r="F155" s="24">
+        <v>2</v>
+      </c>
+      <c r="G155" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="18">
+        <v>44152</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E156" s="18">
+        <v>44152</v>
+      </c>
+      <c r="F156" s="24">
+        <v>2</v>
+      </c>
+      <c r="G156" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="21">
+        <v>44153</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+      <c r="D157" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E157" s="21">
+        <v>44153</v>
+      </c>
+      <c r="F157" s="24">
+        <v>2</v>
+      </c>
+      <c r="G157" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="18">
+        <v>44154</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E158" s="18">
+        <v>44154</v>
+      </c>
+      <c r="F158" s="24">
+        <v>2</v>
+      </c>
+      <c r="G158" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="21">
+        <v>44155</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E159" s="21">
+        <v>44155</v>
+      </c>
+      <c r="F159" s="24">
+        <v>2</v>
+      </c>
+      <c r="G159" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="18">
+        <v>44156</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E160" s="18">
+        <v>44156</v>
+      </c>
+      <c r="F160" s="24">
+        <v>2</v>
+      </c>
+      <c r="G160" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="21">
+        <v>44157</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E161" s="21">
+        <v>44157</v>
+      </c>
+      <c r="F161" s="24">
+        <v>2</v>
+      </c>
+      <c r="G161" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="18">
+        <v>44158</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E162" s="18">
+        <v>44158</v>
+      </c>
+      <c r="F162" s="24">
+        <v>2</v>
+      </c>
+      <c r="G162" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="21">
+        <v>44159</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163">
+        <v>5</v>
+      </c>
+      <c r="D163" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E163" s="21">
+        <v>44159</v>
+      </c>
+      <c r="F163" s="24">
+        <v>2</v>
+      </c>
+      <c r="G163" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="18">
+        <v>44160</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+      <c r="D164" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E164" s="18">
+        <v>44160</v>
+      </c>
+      <c r="F164" s="24">
+        <v>2</v>
+      </c>
+      <c r="G164" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="21">
+        <v>44161</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
+      <c r="D165" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E165" s="21">
+        <v>44161</v>
+      </c>
+      <c r="F165" s="24">
+        <v>2</v>
+      </c>
+      <c r="G165" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="18">
+        <v>44162</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E166" s="18">
+        <v>44162</v>
+      </c>
+      <c r="F166" s="24">
+        <v>2</v>
+      </c>
+      <c r="G166" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="21">
+        <v>44163</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+      <c r="D167" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E167" s="21">
+        <v>44163</v>
+      </c>
+      <c r="F167" s="24">
+        <v>2</v>
+      </c>
+      <c r="G167" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="18">
+        <v>44164</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E168" s="18">
+        <v>44164</v>
+      </c>
+      <c r="F168" s="24">
+        <v>2</v>
+      </c>
+      <c r="G168" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" s="21">
+        <v>44165</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+      <c r="D169" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E169" s="21">
+        <v>44165</v>
+      </c>
+      <c r="F169" s="24">
+        <v>2</v>
+      </c>
+      <c r="G169" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="18">
+        <v>44166</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+      <c r="D170" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E170" s="18">
+        <v>44166</v>
+      </c>
+      <c r="F170" s="24">
+        <v>2</v>
+      </c>
+      <c r="G170" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="21">
+        <v>44167</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E171" s="21">
+        <v>44167</v>
+      </c>
+      <c r="F171" s="24">
+        <v>2</v>
+      </c>
+      <c r="G171" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="18">
+        <v>44168</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E172" s="18">
+        <v>44168</v>
+      </c>
+      <c r="F172" s="24">
+        <v>2</v>
+      </c>
+      <c r="G172" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="21">
+        <v>44169</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E173" s="21">
+        <v>44169</v>
+      </c>
+      <c r="F173" s="24">
+        <v>2</v>
+      </c>
+      <c r="G173" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="18">
+        <v>44170</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E174" s="18">
+        <v>44170</v>
+      </c>
+      <c r="F174" s="24">
+        <v>2</v>
+      </c>
+      <c r="G174" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="21">
+        <v>44171</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E175" s="21">
+        <v>44171</v>
+      </c>
+      <c r="F175" s="24">
+        <v>2</v>
+      </c>
+      <c r="G175" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="18">
+        <v>44172</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E176" s="18">
+        <v>44172</v>
+      </c>
+      <c r="F176" s="24">
+        <v>2</v>
+      </c>
+      <c r="G176" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" s="21">
+        <v>44173</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+      <c r="D177" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E177" s="21">
+        <v>44173</v>
+      </c>
+      <c r="F177" s="24">
+        <v>2</v>
+      </c>
+      <c r="G177" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="18">
+        <v>44174</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E178" s="18">
+        <v>44174</v>
+      </c>
+      <c r="F178" s="24">
+        <v>2</v>
+      </c>
+      <c r="G178" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="21">
+        <v>44175</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+      <c r="D179" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E179" s="21">
+        <v>44175</v>
+      </c>
+      <c r="F179" s="24">
+        <v>2</v>
+      </c>
+      <c r="G179" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="18">
+        <v>44176</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E180" s="18">
+        <v>44176</v>
+      </c>
+      <c r="F180" s="24">
+        <v>2</v>
+      </c>
+      <c r="G180" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" s="21">
+        <v>44177</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E181" s="21">
+        <v>44177</v>
+      </c>
+      <c r="F181" s="24">
+        <v>2</v>
+      </c>
+      <c r="G181" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="18">
+        <v>44178</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="D182" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E182" s="18">
+        <v>44178</v>
+      </c>
+      <c r="F182" s="24">
+        <v>2</v>
+      </c>
+      <c r="G182" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="21">
+        <v>44179</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E183" s="21">
+        <v>44179</v>
+      </c>
+      <c r="F183" s="24">
+        <v>2</v>
+      </c>
+      <c r="G183" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="18">
+        <v>44180</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E184" s="18">
+        <v>44180</v>
+      </c>
+      <c r="F184" s="24">
+        <v>2</v>
+      </c>
+      <c r="G184" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" s="21">
+        <v>44181</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185">
+        <v>5</v>
+      </c>
+      <c r="D185" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E185" s="21">
+        <v>44181</v>
+      </c>
+      <c r="F185" s="24">
+        <v>2</v>
+      </c>
+      <c r="G185" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" s="18">
+        <v>44182</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E186" s="18">
+        <v>44182</v>
+      </c>
+      <c r="F186" s="24">
+        <v>2</v>
+      </c>
+      <c r="G186" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="21">
+        <v>44183</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E187" s="21">
+        <v>44183</v>
+      </c>
+      <c r="F187" s="24">
+        <v>2</v>
+      </c>
+      <c r="G187" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="18">
+        <v>44184</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E188" s="18">
+        <v>44184</v>
+      </c>
+      <c r="F188" s="24">
+        <v>2</v>
+      </c>
+      <c r="G188" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" s="21">
+        <v>44185</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
+      <c r="D189" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E189" s="21">
+        <v>44185</v>
+      </c>
+      <c r="F189" s="24">
+        <v>2</v>
+      </c>
+      <c r="G189" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="18">
+        <v>44186</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E190" s="18">
+        <v>44186</v>
+      </c>
+      <c r="F190" s="24">
+        <v>2</v>
+      </c>
+      <c r="G190" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" s="21">
+        <v>44187</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="D191" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E191" s="21">
+        <v>44187</v>
+      </c>
+      <c r="F191" s="24">
+        <v>2</v>
+      </c>
+      <c r="G191" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="18">
+        <v>44188</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192" s="24">
+        <v>44139</v>
+      </c>
+      <c r="E192" s="18">
+        <v>44188</v>
+      </c>
+      <c r="F192" s="24">
+        <v>2</v>
+      </c>
+      <c r="G192" s="24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
+++ b/uploads/CategoriaNuevo/CategoriaMinaPanulcillo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/CategoriaNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0E5570C-EEF5-4671-9AFB-02F86CCC7C12}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92BC2B84-7BF4-4AF7-AB11-959D28F6DF83}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="202">
   <si>
     <t>id</t>
   </si>
@@ -618,6 +618,30 @@
   </si>
   <si>
     <t>Total Costos Indirectos y Gastos Generales</t>
+  </si>
+  <si>
+    <t>OFICINA MODULAR DE 6 x 2,5 x 2,80</t>
+  </si>
+  <si>
+    <t>OFICINA GARITA MODULAR DE 3 x 2,5 x 2,80</t>
+  </si>
+  <si>
+    <t>BAÑOS MIXTO DE 6.0 x 2.5 x 2.930</t>
+  </si>
+  <si>
+    <t>CASA DE CAMBIO</t>
+  </si>
+  <si>
+    <t>FOSO SEPTICO</t>
+  </si>
+  <si>
+    <t>COMEDOR MODULAR DE 6 x 2,5 x 2,80</t>
+  </si>
+  <si>
+    <t>BAÑOS QUIMICOS TERRENO</t>
+  </si>
+  <si>
+    <t>Total Otros Costos Directos</t>
   </si>
 </sst>
 </file>
@@ -759,34 +783,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,6 +808,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -901,8 +926,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}" name="Tabla1" displayName="Tabla1" ref="A1:G192" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:G192" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}" name="Tabla1" displayName="Tabla1" ref="A1:G200" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:G200" xr:uid="{B6D47527-3F8D-4421-BFB1-FD8B877FFD7B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{115A9EBB-5BAD-4271-B80E-885F0DCBFFF7}" name="id"/>
     <tableColumn id="2" xr3:uid="{90C47675-E299-400A-B78E-8C89E0E72C69}" name="nombre" dataDxfId="0"/>
@@ -1179,434 +1204,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I146" sqref="I146"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I199" sqref="I199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="75.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="2" max="2" width="38.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24">
         <v>43997</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="24">
+        <v>5</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24">
         <v>43997</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="24">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23">
         <v>43998</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="5">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7">
+      <c r="C3" s="24">
+        <v>5</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23">
         <v>43998</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
         <v>43999</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="24">
+        <v>5</v>
+      </c>
+      <c r="D4" s="23">
         <v>43998</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="24">
         <v>43999</v>
       </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+      <c r="F4" s="24">
+        <v>2</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
         <v>44000</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="23">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24">
         <v>43999</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="23">
         <v>44000</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="23">
         <v>3</v>
       </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="23">
         <v>44001</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="23">
+        <v>5</v>
+      </c>
+      <c r="D6" s="23">
         <v>44000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="23">
         <v>44001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="23">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
         <v>44002</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="23">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23">
         <v>44000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="23">
         <v>44002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="23">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
         <v>44003</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="23">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23">
         <v>44000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="23">
         <v>44003</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="23">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
         <v>44004</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="23">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23">
         <v>44000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="23">
         <v>44004</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="23">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23">
         <v>44005</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11">
-        <v>5</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="23">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18">
         <v>43999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="23">
         <v>44005</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="23">
         <v>3</v>
       </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="23">
         <v>44006</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="23">
+        <v>5</v>
+      </c>
+      <c r="D11" s="23">
         <v>44005</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="23">
         <v>44006</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="23">
         <v>4</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="23">
         <v>44007</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="23">
+        <v>5</v>
+      </c>
+      <c r="D12" s="23">
         <v>44005</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="23">
         <v>44007</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="23">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="23">
         <v>44008</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="23">
+        <v>5</v>
+      </c>
+      <c r="D13" s="23">
         <v>44005</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="23">
         <v>44008</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="23">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="23">
         <v>44009</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="23">
+        <v>5</v>
+      </c>
+      <c r="D14" s="23">
         <v>44005</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="23">
         <v>44009</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="23">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>44010</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11">
-        <v>5</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="23">
+        <v>5</v>
+      </c>
+      <c r="D15" s="18">
         <v>43999</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="23">
         <v>44010</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="23">
         <v>3</v>
       </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>44011</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="23">
+        <v>5</v>
+      </c>
+      <c r="D16" s="23">
         <v>44010</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="23">
         <v>44011</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="23">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>44012</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17" s="23">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18">
         <v>43997</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="23">
         <v>44012</v>
       </c>
-      <c r="F17" s="9">
-        <v>2</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
+      <c r="F17" s="23">
+        <v>2</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>44013</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="23">
+        <v>5</v>
+      </c>
+      <c r="D18" s="23">
         <v>44012</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="23">
         <v>44013</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="23">
         <v>3</v>
       </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>44014</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C19">
@@ -1625,11 +1689,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>44015</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20">
@@ -1648,11 +1712,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>44016</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21">
@@ -1671,34 +1735,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
+    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>44017</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="11">
-        <v>5</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="6">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
         <v>44012</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="6">
         <v>44017</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="6">
         <v>3</v>
       </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>44018</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C23">
@@ -1717,11 +1781,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>44019</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C24">
@@ -1740,11 +1804,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>44020</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C25">
@@ -1763,11 +1827,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>44021</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C26">
@@ -1786,34 +1850,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
+    <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
         <v>44022</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="11">
-        <v>5</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="6">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
         <v>44012</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="6">
         <v>44022</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="6">
         <v>3</v>
       </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>44023</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C28">
@@ -1832,11 +1896,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>44024</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C29">
@@ -1855,34 +1919,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>44025</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="11">
-        <v>5</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="C30" s="6">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6">
         <v>44012</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="6">
         <v>44025</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="6">
         <v>3</v>
       </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>44026</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C31">
@@ -1901,11 +1965,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>44027</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C32">
@@ -1928,7 +1992,7 @@
       <c r="A33">
         <v>44028</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C33">
@@ -1947,26 +2011,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11">
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
         <v>44029</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="11">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="C34" s="6">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6">
         <v>44012</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="6">
         <v>44029</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="6">
         <v>3</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1974,7 +2038,7 @@
       <c r="A35">
         <v>44030</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C35">
@@ -1997,7 +2061,7 @@
       <c r="A36">
         <v>44031</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C36">
@@ -2020,7 +2084,7 @@
       <c r="A37">
         <v>44032</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C37">
@@ -2039,26 +2103,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11">
+    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
         <v>44033</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="11">
-        <v>5</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="C38" s="6">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6">
         <v>44012</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="6">
         <v>44033</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="6">
         <v>3</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2066,7 +2130,7 @@
       <c r="A39">
         <v>44034</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C39">
@@ -2086,16 +2150,16 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="11">
+      <c r="A40" s="6">
         <v>44035</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="6">
         <v>44035</v>
       </c>
       <c r="F40">
@@ -2105,43 +2169,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="18">
+    <row r="41" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
         <v>44036</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="18">
-        <v>5</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="C41" s="10">
+        <v>5</v>
+      </c>
+      <c r="D41" s="6">
         <v>44035</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="10">
         <v>44036</v>
       </c>
-      <c r="F41" s="18">
-        <v>2</v>
-      </c>
-      <c r="G41" s="18">
+      <c r="F41" s="10">
+        <v>2</v>
+      </c>
+      <c r="G41" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="11">
+      <c r="A42" s="6">
         <v>44037</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="10">
         <v>44036</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="6">
         <v>44037</v>
       </c>
       <c r="F42">
@@ -2151,43 +2215,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="18">
+    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10">
         <v>44038</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="18">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11">
+      <c r="C43" s="10">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6">
         <v>44035</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="10">
         <v>44038</v>
       </c>
-      <c r="F43" s="18">
-        <v>2</v>
-      </c>
-      <c r="G43" s="18">
+      <c r="F43" s="10">
+        <v>2</v>
+      </c>
+      <c r="G43" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="11">
+      <c r="A44" s="6">
         <v>44039</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="10">
         <v>44038</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="6">
         <v>44039</v>
       </c>
       <c r="F44">
@@ -2201,13 +2265,13 @@
       <c r="A45">
         <v>44040</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="10">
         <v>44038</v>
       </c>
       <c r="E45">
@@ -2221,19 +2285,19 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="11">
+      <c r="A46" s="6">
         <v>44041</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="10">
         <v>44038</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="6">
         <v>44041</v>
       </c>
       <c r="F46">
@@ -2247,13 +2311,13 @@
       <c r="A47">
         <v>44042</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="10">
         <v>44038</v>
       </c>
       <c r="E47">
@@ -2267,19 +2331,19 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="11">
+      <c r="A48" s="6">
         <v>44043</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="10">
         <v>44038</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="6">
         <v>44043</v>
       </c>
       <c r="F48">
@@ -2293,13 +2357,13 @@
       <c r="A49">
         <v>44044</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="10">
         <v>44038</v>
       </c>
       <c r="E49">
@@ -2313,19 +2377,19 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="11">
+      <c r="A50" s="6">
         <v>44045</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="10">
         <v>44038</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="6">
         <v>44045</v>
       </c>
       <c r="F50">
@@ -2339,13 +2403,13 @@
       <c r="A51">
         <v>44046</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="10">
         <v>44038</v>
       </c>
       <c r="E51">
@@ -2358,43 +2422,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="21">
+    <row r="52" spans="1:7" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="13">
         <v>44047</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="18">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11">
+      <c r="C52" s="10">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6">
         <v>44035</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="13">
         <v>44047</v>
       </c>
-      <c r="F52" s="18">
-        <v>2</v>
-      </c>
-      <c r="G52" s="18">
+      <c r="F52" s="10">
+        <v>2</v>
+      </c>
+      <c r="G52" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="11">
+      <c r="A53" s="6">
         <v>44049</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C53">
         <v>5</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="13">
         <v>44047</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="6">
         <v>44049</v>
       </c>
       <c r="F53">
@@ -2408,13 +2472,13 @@
       <c r="A54">
         <v>44050</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="13">
         <v>44047</v>
       </c>
       <c r="E54">
@@ -2428,19 +2492,19 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="11">
+      <c r="A55" s="6">
         <v>44051</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C55">
         <v>5</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="13">
         <v>44047</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="6">
         <v>44051</v>
       </c>
       <c r="F55">
@@ -2450,43 +2514,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="18">
+    <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10">
         <v>44052</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="18">
-        <v>5</v>
-      </c>
-      <c r="D56" s="11">
+      <c r="C56" s="10">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6">
         <v>44035</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="10">
         <v>44052</v>
       </c>
-      <c r="F56" s="18">
-        <v>2</v>
-      </c>
-      <c r="G56" s="18">
+      <c r="F56" s="10">
+        <v>2</v>
+      </c>
+      <c r="G56" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="11">
+      <c r="A57" s="6">
         <v>44053</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C57">
         <v>5</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="10">
         <v>44052</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="6">
         <v>44053</v>
       </c>
       <c r="F57">
@@ -2500,13 +2564,13 @@
       <c r="A58">
         <v>44054</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C58">
         <v>5</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="10">
         <v>44052</v>
       </c>
       <c r="E58">
@@ -2520,19 +2584,19 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="11">
+      <c r="A59" s="6">
         <v>44055</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C59">
         <v>5</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="10">
         <v>44052</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="6">
         <v>44055</v>
       </c>
       <c r="F59">
@@ -2546,13 +2610,13 @@
       <c r="A60">
         <v>44056</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="10">
         <v>44052</v>
       </c>
       <c r="E60">
@@ -2565,26 +2629,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="21">
+    <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="13">
         <v>44057</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="18">
-        <v>5</v>
-      </c>
-      <c r="D61" s="11">
+      <c r="C61" s="10">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6">
         <v>44035</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="13">
         <v>44057</v>
       </c>
-      <c r="F61" s="18">
-        <v>2</v>
-      </c>
-      <c r="G61" s="18">
+      <c r="F61" s="10">
+        <v>2</v>
+      </c>
+      <c r="G61" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2592,13 +2656,13 @@
       <c r="A62">
         <v>44058</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="13">
         <v>44057</v>
       </c>
       <c r="E62">
@@ -2612,19 +2676,19 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="11">
+      <c r="A63" s="6">
         <v>44059</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C63">
         <v>5</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="13">
         <v>44057</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="6">
         <v>44059</v>
       </c>
       <c r="F63">
@@ -2638,13 +2702,13 @@
       <c r="A64">
         <v>44060</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="13">
         <v>44057</v>
       </c>
       <c r="E64">
@@ -2657,26 +2721,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="21">
+    <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="13">
         <v>44061</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="18">
-        <v>5</v>
-      </c>
-      <c r="D65" s="11">
+      <c r="C65" s="10">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6">
         <v>44035</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="13">
         <v>44061</v>
       </c>
-      <c r="F65" s="18">
-        <v>2</v>
-      </c>
-      <c r="G65" s="18">
+      <c r="F65" s="10">
+        <v>2</v>
+      </c>
+      <c r="G65" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2684,13 +2748,13 @@
       <c r="A66">
         <v>44062</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="13">
         <v>44061</v>
       </c>
       <c r="E66">
@@ -2704,19 +2768,19 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="11">
+      <c r="A67" s="6">
         <v>44063</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C67">
         <v>5</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="13">
         <v>44061</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="6">
         <v>44063</v>
       </c>
       <c r="F67">
@@ -2730,13 +2794,13 @@
       <c r="A68">
         <v>44064</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="13">
         <v>44061</v>
       </c>
       <c r="E68">
@@ -2749,26 +2813,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="21">
+    <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="13">
         <v>44065</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="18">
-        <v>5</v>
-      </c>
-      <c r="D69" s="11">
+      <c r="C69" s="10">
+        <v>5</v>
+      </c>
+      <c r="D69" s="6">
         <v>44035</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="13">
         <v>44065</v>
       </c>
-      <c r="F69" s="18">
-        <v>2</v>
-      </c>
-      <c r="G69" s="18">
+      <c r="F69" s="10">
+        <v>2</v>
+      </c>
+      <c r="G69" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2776,13 +2840,13 @@
       <c r="A70">
         <v>44066</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="13">
         <v>44065</v>
       </c>
       <c r="E70">
@@ -2796,19 +2860,19 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="11">
+      <c r="A71" s="6">
         <v>44067</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="13">
         <v>44065</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="6">
         <v>44067</v>
       </c>
       <c r="F71">
@@ -2818,77 +2882,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="18">
+    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="10">
         <v>44068</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="18">
-        <v>5</v>
-      </c>
-      <c r="D72" s="11">
+      <c r="C72" s="10">
+        <v>5</v>
+      </c>
+      <c r="D72" s="6">
         <v>44035</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="10">
         <v>44068</v>
       </c>
-      <c r="F72" s="18">
-        <v>2</v>
-      </c>
-      <c r="G72" s="18">
+      <c r="F72" s="10">
+        <v>2</v>
+      </c>
+      <c r="G72" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="21">
+      <c r="A73" s="13">
         <v>44069</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="18">
-        <v>5</v>
-      </c>
-      <c r="D73" s="11">
+      <c r="C73" s="10">
+        <v>5</v>
+      </c>
+      <c r="D73" s="6">
         <v>44035</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="13">
         <v>44069</v>
       </c>
-      <c r="F73" s="18">
-        <v>2</v>
-      </c>
-      <c r="G73" s="18">
+      <c r="F73" s="10">
+        <v>2</v>
+      </c>
+      <c r="G73" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="18">
+      <c r="A74" s="10">
         <v>44070</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="18">
-        <v>5</v>
-      </c>
-      <c r="D74" s="11">
+      <c r="C74" s="10">
+        <v>5</v>
+      </c>
+      <c r="D74" s="6">
         <v>44035</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="10">
         <v>44070</v>
       </c>
-      <c r="F74" s="18">
-        <v>2</v>
-      </c>
-      <c r="G74" s="18">
+      <c r="F74" s="10">
+        <v>2</v>
+      </c>
+      <c r="G74" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="21">
+      <c r="A75" s="13">
         <v>44071</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2897,7 +2961,7 @@
       <c r="C75">
         <v>5</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="13">
         <v>44071</v>
       </c>
       <c r="F75">
@@ -2908,16 +2972,16 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="18">
+      <c r="A76" s="10">
         <v>44072</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="10">
         <v>44072</v>
       </c>
       <c r="F76">
@@ -2928,10 +2992,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="21">
+      <c r="A77" s="13">
         <v>44073</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C77">
@@ -2940,7 +3004,7 @@
       <c r="D77">
         <v>44072</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="13">
         <v>44073</v>
       </c>
       <c r="F77">
@@ -2951,10 +3015,10 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="18">
+      <c r="A78" s="10">
         <v>44074</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C78">
@@ -2963,7 +3027,7 @@
       <c r="D78">
         <v>44072</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="10">
         <v>44074</v>
       </c>
       <c r="F78">
@@ -2974,10 +3038,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="21">
+      <c r="A79" s="13">
         <v>44075</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C79">
@@ -2986,7 +3050,7 @@
       <c r="D79">
         <v>44072</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E79" s="13">
         <v>44075</v>
       </c>
       <c r="F79">
@@ -2997,10 +3061,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="18">
+      <c r="A80" s="10">
         <v>44076</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C80">
@@ -3009,7 +3073,7 @@
       <c r="D80">
         <v>44072</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="10">
         <v>44076</v>
       </c>
       <c r="F80">
@@ -3020,10 +3084,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="21">
+      <c r="A81" s="13">
         <v>44077</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C81">
@@ -3032,7 +3096,7 @@
       <c r="D81">
         <v>44072</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E81" s="13">
         <v>44077</v>
       </c>
       <c r="F81">
@@ -3043,10 +3107,10 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="18">
+      <c r="A82" s="10">
         <v>44078</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C82">
@@ -3055,7 +3119,7 @@
       <c r="D82">
         <v>44072</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="10">
         <v>44078</v>
       </c>
       <c r="F82">
@@ -3066,10 +3130,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="21">
+      <c r="A83" s="13">
         <v>44079</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C83">
@@ -3078,7 +3142,7 @@
       <c r="D83">
         <v>44072</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="13">
         <v>44079</v>
       </c>
       <c r="F83">
@@ -3089,10 +3153,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="18">
+      <c r="A84" s="10">
         <v>44080</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C84">
@@ -3101,7 +3165,7 @@
       <c r="D84">
         <v>44072</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="10">
         <v>44080</v>
       </c>
       <c r="F84">
@@ -3112,10 +3176,10 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="21">
+      <c r="A85" s="13">
         <v>44081</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C85">
@@ -3124,7 +3188,7 @@
       <c r="D85">
         <v>44072</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="13">
         <v>44081</v>
       </c>
       <c r="F85">
@@ -3135,10 +3199,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="18">
+      <c r="A86" s="10">
         <v>44082</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C86">
@@ -3147,7 +3211,7 @@
       <c r="D86">
         <v>44072</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="10">
         <v>44082</v>
       </c>
       <c r="F86">
@@ -3158,10 +3222,10 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="21">
+      <c r="A87" s="13">
         <v>44083</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C87">
@@ -3170,7 +3234,7 @@
       <c r="D87">
         <v>44072</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="13">
         <v>44083</v>
       </c>
       <c r="F87">
@@ -3181,10 +3245,10 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="18">
+      <c r="A88" s="10">
         <v>44084</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C88">
@@ -3193,7 +3257,7 @@
       <c r="D88">
         <v>44072</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="10">
         <v>44084</v>
       </c>
       <c r="F88">
@@ -3204,10 +3268,10 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="21">
+      <c r="A89" s="13">
         <v>44085</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C89">
@@ -3216,7 +3280,7 @@
       <c r="D89">
         <v>44099</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="13">
         <v>44085</v>
       </c>
       <c r="F89">
@@ -3227,10 +3291,10 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="18">
+      <c r="A90" s="10">
         <v>44086</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C90">
@@ -3239,7 +3303,7 @@
       <c r="D90">
         <v>44099</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="10">
         <v>44086</v>
       </c>
       <c r="F90">
@@ -3250,10 +3314,10 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="21">
+      <c r="A91" s="13">
         <v>44087</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C91">
@@ -3262,7 +3326,7 @@
       <c r="D91">
         <v>44099</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="13">
         <v>44087</v>
       </c>
       <c r="F91">
@@ -3273,10 +3337,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="18">
+      <c r="A92" s="10">
         <v>44088</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C92">
@@ -3285,7 +3349,7 @@
       <c r="D92">
         <v>44099</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="10">
         <v>44088</v>
       </c>
       <c r="F92">
@@ -3296,10 +3360,10 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="21">
+      <c r="A93" s="13">
         <v>44089</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C93">
@@ -3308,7 +3372,7 @@
       <c r="D93">
         <v>44099</v>
       </c>
-      <c r="E93" s="21">
+      <c r="E93" s="13">
         <v>44089</v>
       </c>
       <c r="F93">
@@ -3319,10 +3383,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="18">
+      <c r="A94" s="10">
         <v>44090</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C94">
@@ -3331,7 +3395,7 @@
       <c r="D94">
         <v>44099</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="10">
         <v>44090</v>
       </c>
       <c r="F94">
@@ -3342,10 +3406,10 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="21">
+      <c r="A95" s="13">
         <v>44091</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C95">
@@ -3354,7 +3418,7 @@
       <c r="D95">
         <v>44099</v>
       </c>
-      <c r="E95" s="21">
+      <c r="E95" s="13">
         <v>44091</v>
       </c>
       <c r="F95">
@@ -3365,10 +3429,10 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="18">
+      <c r="A96" s="10">
         <v>44092</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C96">
@@ -3377,7 +3441,7 @@
       <c r="D96">
         <v>44099</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="10">
         <v>44092</v>
       </c>
       <c r="F96">
@@ -3388,10 +3452,10 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="21">
+      <c r="A97" s="13">
         <v>44093</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C97">
@@ -3400,7 +3464,7 @@
       <c r="D97">
         <v>44099</v>
       </c>
-      <c r="E97" s="21">
+      <c r="E97" s="13">
         <v>44093</v>
       </c>
       <c r="F97">
@@ -3411,10 +3475,10 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="18">
+      <c r="A98" s="10">
         <v>44094</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C98">
@@ -3423,7 +3487,7 @@
       <c r="D98">
         <v>44099</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="10">
         <v>44094</v>
       </c>
       <c r="F98">
@@ -3434,10 +3498,10 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="21">
+      <c r="A99" s="13">
         <v>44095</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C99">
@@ -3446,7 +3510,7 @@
       <c r="D99">
         <v>44099</v>
       </c>
-      <c r="E99" s="21">
+      <c r="E99" s="13">
         <v>44095</v>
       </c>
       <c r="F99">
@@ -3457,10 +3521,10 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="18">
+      <c r="A100" s="10">
         <v>44096</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C100">
@@ -3469,7 +3533,7 @@
       <c r="D100">
         <v>44099</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="10">
         <v>44096</v>
       </c>
       <c r="F100">
@@ -3480,10 +3544,10 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="21">
+      <c r="A101" s="13">
         <v>44097</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C101">
@@ -3492,7 +3556,7 @@
       <c r="D101">
         <v>44099</v>
       </c>
-      <c r="E101" s="21">
+      <c r="E101" s="13">
         <v>44097</v>
       </c>
       <c r="F101">
@@ -3503,10 +3567,10 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="18">
+      <c r="A102" s="10">
         <v>44098</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C102">
@@ -3515,7 +3579,7 @@
       <c r="D102">
         <v>44099</v>
       </c>
-      <c r="E102" s="18">
+      <c r="E102" s="10">
         <v>44098</v>
       </c>
       <c r="F102">
@@ -3526,16 +3590,16 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="21">
+      <c r="A103" s="13">
         <v>44099</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C103">
         <v>5</v>
       </c>
-      <c r="E103" s="21">
+      <c r="E103" s="13">
         <v>44099</v>
       </c>
       <c r="F103">
@@ -3546,7 +3610,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="18">
+      <c r="A104" s="10">
         <v>44100</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -3555,7 +3619,7 @@
       <c r="C104">
         <v>5</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="10">
         <v>44100</v>
       </c>
       <c r="F104">
@@ -3566,10 +3630,10 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="21">
+      <c r="A105" s="13">
         <v>44101</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C105">
@@ -3578,7 +3642,7 @@
       <c r="D105">
         <v>44100</v>
       </c>
-      <c r="E105" s="21">
+      <c r="E105" s="13">
         <v>44101</v>
       </c>
       <c r="F105">
@@ -3589,10 +3653,10 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="18">
+      <c r="A106" s="10">
         <v>44102</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C106">
@@ -3601,7 +3665,7 @@
       <c r="D106">
         <v>44100</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="10">
         <v>44102</v>
       </c>
       <c r="F106">
@@ -3612,10 +3676,10 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="21">
+      <c r="A107" s="13">
         <v>44103</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C107">
@@ -3624,7 +3688,7 @@
       <c r="D107">
         <v>44100</v>
       </c>
-      <c r="E107" s="21">
+      <c r="E107" s="13">
         <v>44103</v>
       </c>
       <c r="F107">
@@ -3635,10 +3699,10 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="18">
+      <c r="A108" s="10">
         <v>44104</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C108">
@@ -3647,7 +3711,7 @@
       <c r="D108">
         <v>44100</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="10">
         <v>44104</v>
       </c>
       <c r="F108">
@@ -3658,10 +3722,10 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="21">
+      <c r="A109" s="13">
         <v>44105</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C109">
@@ -3670,7 +3734,7 @@
       <c r="D109">
         <v>44100</v>
       </c>
-      <c r="E109" s="21">
+      <c r="E109" s="13">
         <v>44105</v>
       </c>
       <c r="F109">
@@ -3681,10 +3745,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="18">
+      <c r="A110" s="10">
         <v>44106</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C110">
@@ -3693,7 +3757,7 @@
       <c r="D110">
         <v>44100</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="10">
         <v>44106</v>
       </c>
       <c r="F110">
@@ -3704,10 +3768,10 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="21">
+      <c r="A111" s="13">
         <v>44107</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C111">
@@ -3716,7 +3780,7 @@
       <c r="D111">
         <v>44100</v>
       </c>
-      <c r="E111" s="21">
+      <c r="E111" s="13">
         <v>44107</v>
       </c>
       <c r="F111">
@@ -3727,10 +3791,10 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="18">
+      <c r="A112" s="10">
         <v>44108</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C112">
@@ -3739,7 +3803,7 @@
       <c r="D112">
         <v>44100</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="10">
         <v>44108</v>
       </c>
       <c r="F112">
@@ -3750,10 +3814,10 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="21">
+      <c r="A113" s="13">
         <v>44109</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C113">
@@ -3762,7 +3826,7 @@
       <c r="D113">
         <v>44100</v>
       </c>
-      <c r="E113" s="21">
+      <c r="E113" s="13">
         <v>44109</v>
       </c>
       <c r="F113">
@@ -3773,10 +3837,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="18">
+      <c r="A114" s="10">
         <v>44110</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C114">
@@ -3785,7 +3849,7 @@
       <c r="D114">
         <v>44100</v>
       </c>
-      <c r="E114" s="18">
+      <c r="E114" s="10">
         <v>44110</v>
       </c>
       <c r="F114">
@@ -3796,10 +3860,10 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="21">
+      <c r="A115" s="13">
         <v>44111</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C115">
@@ -3808,7 +3872,7 @@
       <c r="D115">
         <v>44100</v>
       </c>
-      <c r="E115" s="21">
+      <c r="E115" s="13">
         <v>44111</v>
       </c>
       <c r="F115">
@@ -3819,10 +3883,10 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="18">
+      <c r="A116" s="10">
         <v>44112</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C116">
@@ -3831,7 +3895,7 @@
       <c r="D116">
         <v>44100</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E116" s="10">
         <v>44112</v>
       </c>
       <c r="F116">
@@ -3842,10 +3906,10 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="21">
+      <c r="A117" s="13">
         <v>44113</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C117">
@@ -3854,7 +3918,7 @@
       <c r="D117">
         <v>44100</v>
       </c>
-      <c r="E117" s="21">
+      <c r="E117" s="13">
         <v>44113</v>
       </c>
       <c r="F117">
@@ -3865,10 +3929,10 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="18">
+      <c r="A118" s="10">
         <v>44114</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C118">
@@ -3877,7 +3941,7 @@
       <c r="D118">
         <v>44100</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="10">
         <v>44114</v>
       </c>
       <c r="F118">
@@ -3888,10 +3952,10 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="21">
+      <c r="A119" s="13">
         <v>44115</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C119">
@@ -3900,7 +3964,7 @@
       <c r="D119">
         <v>44100</v>
       </c>
-      <c r="E119" s="21">
+      <c r="E119" s="13">
         <v>44115</v>
       </c>
       <c r="F119">
@@ -3911,10 +3975,10 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="18">
+      <c r="A120" s="10">
         <v>44116</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C120">
@@ -3923,7 +3987,7 @@
       <c r="D120">
         <v>44100</v>
       </c>
-      <c r="E120" s="18">
+      <c r="E120" s="10">
         <v>44116</v>
       </c>
       <c r="F120">
@@ -3934,10 +3998,10 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="21">
+      <c r="A121" s="13">
         <v>44117</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C121">
@@ -3946,7 +4010,7 @@
       <c r="D121">
         <v>44100</v>
       </c>
-      <c r="E121" s="21">
+      <c r="E121" s="13">
         <v>44117</v>
       </c>
       <c r="F121">
@@ -3957,10 +4021,10 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="18">
+      <c r="A122" s="10">
         <v>44118</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C122">
@@ -3969,7 +4033,7 @@
       <c r="D122">
         <v>44100</v>
       </c>
-      <c r="E122" s="18">
+      <c r="E122" s="10">
         <v>44118</v>
       </c>
       <c r="F122">
@@ -3980,10 +4044,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="21">
+      <c r="A123" s="13">
         <v>44119</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C123">
@@ -3992,7 +4056,7 @@
       <c r="D123">
         <v>44100</v>
       </c>
-      <c r="E123" s="21">
+      <c r="E123" s="13">
         <v>44119</v>
       </c>
       <c r="F123">
@@ -4003,10 +4067,10 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="18">
+      <c r="A124" s="10">
         <v>44120</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C124">
@@ -4015,7 +4079,7 @@
       <c r="D124">
         <v>44100</v>
       </c>
-      <c r="E124" s="18">
+      <c r="E124" s="10">
         <v>44120</v>
       </c>
       <c r="F124">
@@ -4026,10 +4090,10 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="21">
+      <c r="A125" s="13">
         <v>44121</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C125">
@@ -4038,7 +4102,7 @@
       <c r="D125">
         <v>44100</v>
       </c>
-      <c r="E125" s="21">
+      <c r="E125" s="13">
         <v>44121</v>
       </c>
       <c r="F125">
@@ -4049,10 +4113,10 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="18">
+      <c r="A126" s="10">
         <v>44122</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C126">
@@ -4061,7 +4125,7 @@
       <c r="D126">
         <v>44100</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E126" s="10">
         <v>44122</v>
       </c>
       <c r="F126">
@@ -4072,10 +4136,10 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="21">
+      <c r="A127" s="13">
         <v>44123</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C127">
@@ -4084,7 +4148,7 @@
       <c r="D127">
         <v>44100</v>
       </c>
-      <c r="E127" s="21">
+      <c r="E127" s="13">
         <v>44123</v>
       </c>
       <c r="F127">
@@ -4095,10 +4159,10 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="18">
+      <c r="A128" s="10">
         <v>44124</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C128">
@@ -4107,7 +4171,7 @@
       <c r="D128">
         <v>44100</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E128" s="10">
         <v>44124</v>
       </c>
       <c r="F128">
@@ -4118,10 +4182,10 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="21">
+      <c r="A129" s="13">
         <v>44125</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C129">
@@ -4130,7 +4194,7 @@
       <c r="D129">
         <v>44100</v>
       </c>
-      <c r="E129" s="21">
+      <c r="E129" s="13">
         <v>44125</v>
       </c>
       <c r="F129">
@@ -4141,10 +4205,10 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="18">
+      <c r="A130" s="10">
         <v>44126</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C130">
@@ -4153,7 +4217,7 @@
       <c r="D130">
         <v>44100</v>
       </c>
-      <c r="E130" s="18">
+      <c r="E130" s="10">
         <v>44126</v>
       </c>
       <c r="F130">
@@ -4164,10 +4228,10 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="21">
+      <c r="A131" s="13">
         <v>44127</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C131">
@@ -4176,7 +4240,7 @@
       <c r="D131">
         <v>44100</v>
       </c>
-      <c r="E131" s="21">
+      <c r="E131" s="13">
         <v>44127</v>
       </c>
       <c r="F131">
@@ -4187,10 +4251,10 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="18">
+      <c r="A132" s="10">
         <v>44128</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C132">
@@ -4199,7 +4263,7 @@
       <c r="D132">
         <v>44100</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E132" s="10">
         <v>44128</v>
       </c>
       <c r="F132">
@@ -4210,10 +4274,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="21">
+      <c r="A133" s="13">
         <v>44129</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C133">
@@ -4222,7 +4286,7 @@
       <c r="D133">
         <v>44100</v>
       </c>
-      <c r="E133" s="21">
+      <c r="E133" s="13">
         <v>44129</v>
       </c>
       <c r="F133">
@@ -4233,10 +4297,10 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="18">
+      <c r="A134" s="10">
         <v>44130</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C134">
@@ -4245,7 +4309,7 @@
       <c r="D134">
         <v>44100</v>
       </c>
-      <c r="E134" s="18">
+      <c r="E134" s="10">
         <v>44130</v>
       </c>
       <c r="F134">
@@ -4256,10 +4320,10 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="21">
+      <c r="A135" s="13">
         <v>44131</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C135">
@@ -4268,7 +4332,7 @@
       <c r="D135">
         <v>44100</v>
       </c>
-      <c r="E135" s="21">
+      <c r="E135" s="13">
         <v>44131</v>
       </c>
       <c r="F135">
@@ -4279,10 +4343,10 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="18">
+      <c r="A136" s="10">
         <v>44132</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C136">
@@ -4291,7 +4355,7 @@
       <c r="D136">
         <v>44100</v>
       </c>
-      <c r="E136" s="18">
+      <c r="E136" s="10">
         <v>44132</v>
       </c>
       <c r="F136">
@@ -4302,10 +4366,10 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="21">
+      <c r="A137" s="13">
         <v>44133</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C137">
@@ -4314,7 +4378,7 @@
       <c r="D137">
         <v>44100</v>
       </c>
-      <c r="E137" s="21">
+      <c r="E137" s="13">
         <v>44133</v>
       </c>
       <c r="F137">
@@ -4325,10 +4389,10 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="18">
+      <c r="A138" s="10">
         <v>44134</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C138">
@@ -4337,7 +4401,7 @@
       <c r="D138">
         <v>44100</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="10">
         <v>44134</v>
       </c>
       <c r="F138">
@@ -4348,10 +4412,10 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="21">
+      <c r="A139" s="13">
         <v>44135</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C139">
@@ -4360,7 +4424,7 @@
       <c r="D139">
         <v>44100</v>
       </c>
-      <c r="E139" s="21">
+      <c r="E139" s="13">
         <v>44135</v>
       </c>
       <c r="F139">
@@ -4371,10 +4435,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="18">
+      <c r="A140" s="10">
         <v>44136</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C140">
@@ -4383,7 +4447,7 @@
       <c r="D140">
         <v>44100</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="10">
         <v>44136</v>
       </c>
       <c r="F140">
@@ -4394,10 +4458,10 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="21">
+      <c r="A141" s="13">
         <v>44137</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C141">
@@ -4406,7 +4470,7 @@
       <c r="D141">
         <v>44100</v>
       </c>
-      <c r="E141" s="21">
+      <c r="E141" s="13">
         <v>44137</v>
       </c>
       <c r="F141">
@@ -4417,10 +4481,10 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="18">
+      <c r="A142" s="10">
         <v>44138</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C142">
@@ -4429,7 +4493,7 @@
       <c r="D142">
         <v>44100</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="10">
         <v>44138</v>
       </c>
       <c r="F142">
@@ -4440,7 +4504,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="21">
+      <c r="A143" s="13">
         <v>44139</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -4449,7 +4513,7 @@
       <c r="C143">
         <v>5</v>
       </c>
-      <c r="E143" s="21">
+      <c r="E143" s="13">
         <v>44139</v>
       </c>
       <c r="F143">
@@ -4460,1129 +4524,1310 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="18">
+      <c r="A144" s="10">
         <v>44140</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C144">
         <v>5</v>
       </c>
-      <c r="D144" s="24">
+      <c r="D144">
         <v>44139</v>
       </c>
-      <c r="E144" s="18">
+      <c r="E144" s="10">
         <v>44140</v>
       </c>
-      <c r="F144" s="24">
-        <v>2</v>
-      </c>
-      <c r="G144" s="24">
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="21">
+      <c r="A145" s="13">
         <v>44141</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C145">
         <v>5</v>
       </c>
-      <c r="D145" s="24">
+      <c r="D145">
         <v>44139</v>
       </c>
-      <c r="E145" s="21">
+      <c r="E145" s="13">
         <v>44141</v>
       </c>
-      <c r="F145" s="24">
-        <v>2</v>
-      </c>
-      <c r="G145" s="24">
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="18">
+      <c r="A146" s="10">
         <v>44142</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C146">
         <v>5</v>
       </c>
-      <c r="D146" s="24">
+      <c r="D146">
         <v>44139</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E146" s="10">
         <v>44142</v>
       </c>
-      <c r="F146" s="24">
-        <v>2</v>
-      </c>
-      <c r="G146" s="24">
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="21">
+      <c r="A147" s="13">
         <v>44143</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C147">
         <v>5</v>
       </c>
-      <c r="D147" s="24">
+      <c r="D147">
         <v>44139</v>
       </c>
-      <c r="E147" s="21">
+      <c r="E147" s="13">
         <v>44143</v>
       </c>
-      <c r="F147" s="24">
-        <v>2</v>
-      </c>
-      <c r="G147" s="24">
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="18">
+      <c r="A148" s="10">
         <v>44144</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C148">
         <v>5</v>
       </c>
-      <c r="D148" s="24">
+      <c r="D148">
         <v>44139</v>
       </c>
-      <c r="E148" s="18">
+      <c r="E148" s="10">
         <v>44144</v>
       </c>
-      <c r="F148" s="24">
-        <v>2</v>
-      </c>
-      <c r="G148" s="24">
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="21">
+      <c r="A149" s="13">
         <v>44145</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C149">
         <v>5</v>
       </c>
-      <c r="D149" s="24">
+      <c r="D149">
         <v>44139</v>
       </c>
-      <c r="E149" s="21">
+      <c r="E149" s="13">
         <v>44145</v>
       </c>
-      <c r="F149" s="24">
-        <v>2</v>
-      </c>
-      <c r="G149" s="24">
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="18">
+      <c r="A150" s="10">
         <v>44146</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C150">
         <v>5</v>
       </c>
-      <c r="D150" s="24">
+      <c r="D150">
         <v>44139</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E150" s="10">
         <v>44146</v>
       </c>
-      <c r="F150" s="24">
-        <v>2</v>
-      </c>
-      <c r="G150" s="24">
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="21">
+      <c r="A151" s="13">
         <v>44147</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C151">
         <v>5</v>
       </c>
-      <c r="D151" s="24">
+      <c r="D151">
         <v>44139</v>
       </c>
-      <c r="E151" s="21">
+      <c r="E151" s="13">
         <v>44147</v>
       </c>
-      <c r="F151" s="24">
-        <v>2</v>
-      </c>
-      <c r="G151" s="24">
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="G151">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="18">
+      <c r="A152" s="10">
         <v>44148</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="B152" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C152">
         <v>5</v>
       </c>
-      <c r="D152" s="24">
+      <c r="D152">
         <v>44139</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="10">
         <v>44148</v>
       </c>
-      <c r="F152" s="24">
-        <v>2</v>
-      </c>
-      <c r="G152" s="24">
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="21">
+      <c r="A153" s="13">
         <v>44149</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C153">
         <v>5</v>
       </c>
-      <c r="D153" s="24">
+      <c r="D153">
         <v>44139</v>
       </c>
-      <c r="E153" s="21">
+      <c r="E153" s="13">
         <v>44149</v>
       </c>
-      <c r="F153" s="24">
-        <v>2</v>
-      </c>
-      <c r="G153" s="24">
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="18">
+      <c r="A154" s="10">
         <v>44150</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C154">
         <v>5</v>
       </c>
-      <c r="D154" s="24">
+      <c r="D154">
         <v>44139</v>
       </c>
-      <c r="E154" s="18">
+      <c r="E154" s="10">
         <v>44150</v>
       </c>
-      <c r="F154" s="24">
-        <v>2</v>
-      </c>
-      <c r="G154" s="24">
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="21">
+      <c r="A155" s="13">
         <v>44151</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C155">
         <v>5</v>
       </c>
-      <c r="D155" s="24">
+      <c r="D155">
         <v>44139</v>
       </c>
-      <c r="E155" s="21">
+      <c r="E155" s="13">
         <v>44151</v>
       </c>
-      <c r="F155" s="24">
-        <v>2</v>
-      </c>
-      <c r="G155" s="24">
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="18">
+      <c r="A156" s="10">
         <v>44152</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C156">
         <v>5</v>
       </c>
-      <c r="D156" s="24">
+      <c r="D156">
         <v>44139</v>
       </c>
-      <c r="E156" s="18">
+      <c r="E156" s="10">
         <v>44152</v>
       </c>
-      <c r="F156" s="24">
-        <v>2</v>
-      </c>
-      <c r="G156" s="24">
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="21">
+      <c r="A157" s="13">
         <v>44153</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C157">
         <v>5</v>
       </c>
-      <c r="D157" s="24">
+      <c r="D157">
         <v>44139</v>
       </c>
-      <c r="E157" s="21">
+      <c r="E157" s="13">
         <v>44153</v>
       </c>
-      <c r="F157" s="24">
-        <v>2</v>
-      </c>
-      <c r="G157" s="24">
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="18">
+      <c r="A158" s="10">
         <v>44154</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C158">
         <v>5</v>
       </c>
-      <c r="D158" s="24">
+      <c r="D158">
         <v>44139</v>
       </c>
-      <c r="E158" s="18">
+      <c r="E158" s="10">
         <v>44154</v>
       </c>
-      <c r="F158" s="24">
-        <v>2</v>
-      </c>
-      <c r="G158" s="24">
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="21">
+      <c r="A159" s="13">
         <v>44155</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="8" t="s">
         <v>163</v>
       </c>
       <c r="C159">
         <v>5</v>
       </c>
-      <c r="D159" s="24">
+      <c r="D159">
         <v>44139</v>
       </c>
-      <c r="E159" s="21">
+      <c r="E159" s="13">
         <v>44155</v>
       </c>
-      <c r="F159" s="24">
-        <v>2</v>
-      </c>
-      <c r="G159" s="24">
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="18">
+      <c r="A160" s="10">
         <v>44156</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="8" t="s">
         <v>164</v>
       </c>
       <c r="C160">
         <v>5</v>
       </c>
-      <c r="D160" s="24">
+      <c r="D160">
         <v>44139</v>
       </c>
-      <c r="E160" s="18">
+      <c r="E160" s="10">
         <v>44156</v>
       </c>
-      <c r="F160" s="24">
-        <v>2</v>
-      </c>
-      <c r="G160" s="24">
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="21">
+      <c r="A161" s="13">
         <v>44157</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C161">
         <v>5</v>
       </c>
-      <c r="D161" s="24">
+      <c r="D161">
         <v>44139</v>
       </c>
-      <c r="E161" s="21">
+      <c r="E161" s="13">
         <v>44157</v>
       </c>
-      <c r="F161" s="24">
-        <v>2</v>
-      </c>
-      <c r="G161" s="24">
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="18">
+      <c r="A162" s="10">
         <v>44158</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C162">
         <v>5</v>
       </c>
-      <c r="D162" s="24">
+      <c r="D162">
         <v>44139</v>
       </c>
-      <c r="E162" s="18">
+      <c r="E162" s="10">
         <v>44158</v>
       </c>
-      <c r="F162" s="24">
-        <v>2</v>
-      </c>
-      <c r="G162" s="24">
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="21">
+      <c r="A163" s="13">
         <v>44159</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C163">
         <v>5</v>
       </c>
-      <c r="D163" s="24">
+      <c r="D163">
         <v>44139</v>
       </c>
-      <c r="E163" s="21">
+      <c r="E163" s="13">
         <v>44159</v>
       </c>
-      <c r="F163" s="24">
-        <v>2</v>
-      </c>
-      <c r="G163" s="24">
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="18">
+      <c r="A164" s="10">
         <v>44160</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C164">
         <v>5</v>
       </c>
-      <c r="D164" s="24">
+      <c r="D164">
         <v>44139</v>
       </c>
-      <c r="E164" s="18">
+      <c r="E164" s="10">
         <v>44160</v>
       </c>
-      <c r="F164" s="24">
-        <v>2</v>
-      </c>
-      <c r="G164" s="24">
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="21">
+      <c r="A165" s="13">
         <v>44161</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C165">
         <v>5</v>
       </c>
-      <c r="D165" s="24">
+      <c r="D165">
         <v>44139</v>
       </c>
-      <c r="E165" s="21">
+      <c r="E165" s="13">
         <v>44161</v>
       </c>
-      <c r="F165" s="24">
-        <v>2</v>
-      </c>
-      <c r="G165" s="24">
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="18">
+      <c r="A166" s="10">
         <v>44162</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="8" t="s">
         <v>170</v>
       </c>
       <c r="C166">
         <v>5</v>
       </c>
-      <c r="D166" s="24">
+      <c r="D166">
         <v>44139</v>
       </c>
-      <c r="E166" s="18">
+      <c r="E166" s="10">
         <v>44162</v>
       </c>
-      <c r="F166" s="24">
-        <v>2</v>
-      </c>
-      <c r="G166" s="24">
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="21">
+      <c r="A167" s="13">
         <v>44163</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C167">
         <v>5</v>
       </c>
-      <c r="D167" s="24">
+      <c r="D167">
         <v>44139</v>
       </c>
-      <c r="E167" s="21">
+      <c r="E167" s="13">
         <v>44163</v>
       </c>
-      <c r="F167" s="24">
-        <v>2</v>
-      </c>
-      <c r="G167" s="24">
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="18">
+      <c r="A168" s="10">
         <v>44164</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C168">
         <v>5</v>
       </c>
-      <c r="D168" s="24">
+      <c r="D168">
         <v>44139</v>
       </c>
-      <c r="E168" s="18">
+      <c r="E168" s="10">
         <v>44164</v>
       </c>
-      <c r="F168" s="24">
-        <v>2</v>
-      </c>
-      <c r="G168" s="24">
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="21">
+      <c r="A169" s="13">
         <v>44165</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C169">
         <v>5</v>
       </c>
-      <c r="D169" s="24">
+      <c r="D169">
         <v>44139</v>
       </c>
-      <c r="E169" s="21">
+      <c r="E169" s="13">
         <v>44165</v>
       </c>
-      <c r="F169" s="24">
-        <v>2</v>
-      </c>
-      <c r="G169" s="24">
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="18">
+      <c r="A170" s="10">
         <v>44166</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C170">
         <v>5</v>
       </c>
-      <c r="D170" s="24">
+      <c r="D170">
         <v>44139</v>
       </c>
-      <c r="E170" s="18">
+      <c r="E170" s="10">
         <v>44166</v>
       </c>
-      <c r="F170" s="24">
-        <v>2</v>
-      </c>
-      <c r="G170" s="24">
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="21">
+      <c r="A171" s="13">
         <v>44167</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C171">
         <v>5</v>
       </c>
-      <c r="D171" s="24">
+      <c r="D171">
         <v>44139</v>
       </c>
-      <c r="E171" s="21">
+      <c r="E171" s="13">
         <v>44167</v>
       </c>
-      <c r="F171" s="24">
-        <v>2</v>
-      </c>
-      <c r="G171" s="24">
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="18">
+      <c r="A172" s="10">
         <v>44168</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C172">
         <v>5</v>
       </c>
-      <c r="D172" s="24">
+      <c r="D172">
         <v>44139</v>
       </c>
-      <c r="E172" s="18">
+      <c r="E172" s="10">
         <v>44168</v>
       </c>
-      <c r="F172" s="24">
-        <v>2</v>
-      </c>
-      <c r="G172" s="24">
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="21">
+      <c r="A173" s="13">
         <v>44169</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C173">
         <v>5</v>
       </c>
-      <c r="D173" s="24">
+      <c r="D173">
         <v>44139</v>
       </c>
-      <c r="E173" s="21">
+      <c r="E173" s="13">
         <v>44169</v>
       </c>
-      <c r="F173" s="24">
-        <v>2</v>
-      </c>
-      <c r="G173" s="24">
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="18">
+      <c r="A174" s="10">
         <v>44170</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C174">
         <v>5</v>
       </c>
-      <c r="D174" s="24">
+      <c r="D174">
         <v>44139</v>
       </c>
-      <c r="E174" s="18">
+      <c r="E174" s="10">
         <v>44170</v>
       </c>
-      <c r="F174" s="24">
-        <v>2</v>
-      </c>
-      <c r="G174" s="24">
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="G174">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="21">
+      <c r="A175" s="13">
         <v>44171</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B175" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C175">
         <v>5</v>
       </c>
-      <c r="D175" s="24">
+      <c r="D175">
         <v>44139</v>
       </c>
-      <c r="E175" s="21">
+      <c r="E175" s="13">
         <v>44171</v>
       </c>
-      <c r="F175" s="24">
-        <v>2</v>
-      </c>
-      <c r="G175" s="24">
+      <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="G175">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="18">
+      <c r="A176" s="10">
         <v>44172</v>
       </c>
-      <c r="B176" s="16" t="s">
+      <c r="B176" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C176">
         <v>5</v>
       </c>
-      <c r="D176" s="24">
+      <c r="D176">
         <v>44139</v>
       </c>
-      <c r="E176" s="18">
+      <c r="E176" s="10">
         <v>44172</v>
       </c>
-      <c r="F176" s="24">
-        <v>2</v>
-      </c>
-      <c r="G176" s="24">
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="G176">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="21">
+      <c r="A177" s="13">
         <v>44173</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C177">
         <v>5</v>
       </c>
-      <c r="D177" s="24">
+      <c r="D177">
         <v>44139</v>
       </c>
-      <c r="E177" s="21">
+      <c r="E177" s="13">
         <v>44173</v>
       </c>
-      <c r="F177" s="24">
-        <v>2</v>
-      </c>
-      <c r="G177" s="24">
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="G177">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="18">
+      <c r="A178" s="10">
         <v>44174</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C178">
         <v>5</v>
       </c>
-      <c r="D178" s="24">
+      <c r="D178">
         <v>44139</v>
       </c>
-      <c r="E178" s="18">
+      <c r="E178" s="10">
         <v>44174</v>
       </c>
-      <c r="F178" s="24">
-        <v>2</v>
-      </c>
-      <c r="G178" s="24">
+      <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="G178">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="21">
+      <c r="A179" s="13">
         <v>44175</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B179" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C179">
         <v>5</v>
       </c>
-      <c r="D179" s="24">
+      <c r="D179">
         <v>44139</v>
       </c>
-      <c r="E179" s="21">
+      <c r="E179" s="13">
         <v>44175</v>
       </c>
-      <c r="F179" s="24">
-        <v>2</v>
-      </c>
-      <c r="G179" s="24">
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="G179">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="18">
+      <c r="A180" s="10">
         <v>44176</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B180" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C180">
         <v>5</v>
       </c>
-      <c r="D180" s="24">
+      <c r="D180">
         <v>44139</v>
       </c>
-      <c r="E180" s="18">
+      <c r="E180" s="10">
         <v>44176</v>
       </c>
-      <c r="F180" s="24">
-        <v>2</v>
-      </c>
-      <c r="G180" s="24">
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="G180">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="21">
+      <c r="A181" s="13">
         <v>44177</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C181">
         <v>5</v>
       </c>
-      <c r="D181" s="24">
+      <c r="D181">
         <v>44139</v>
       </c>
-      <c r="E181" s="21">
+      <c r="E181" s="13">
         <v>44177</v>
       </c>
-      <c r="F181" s="24">
-        <v>2</v>
-      </c>
-      <c r="G181" s="24">
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="18">
+      <c r="A182" s="10">
         <v>44178</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="B182" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C182">
         <v>5</v>
       </c>
-      <c r="D182" s="24">
+      <c r="D182">
         <v>44139</v>
       </c>
-      <c r="E182" s="18">
+      <c r="E182" s="10">
         <v>44178</v>
       </c>
-      <c r="F182" s="24">
-        <v>2</v>
-      </c>
-      <c r="G182" s="24">
+      <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="G182">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="21">
+      <c r="A183" s="13">
         <v>44179</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C183">
         <v>5</v>
       </c>
-      <c r="D183" s="24">
+      <c r="D183">
         <v>44139</v>
       </c>
-      <c r="E183" s="21">
+      <c r="E183" s="13">
         <v>44179</v>
       </c>
-      <c r="F183" s="24">
-        <v>2</v>
-      </c>
-      <c r="G183" s="24">
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="18">
+      <c r="A184" s="10">
         <v>44180</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C184">
         <v>5</v>
       </c>
-      <c r="D184" s="24">
+      <c r="D184">
         <v>44139</v>
       </c>
-      <c r="E184" s="18">
+      <c r="E184" s="10">
         <v>44180</v>
       </c>
-      <c r="F184" s="24">
-        <v>2</v>
-      </c>
-      <c r="G184" s="24">
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="G184">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="21">
+      <c r="A185" s="13">
         <v>44181</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="B185" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C185">
         <v>5</v>
       </c>
-      <c r="D185" s="24">
+      <c r="D185">
         <v>44139</v>
       </c>
-      <c r="E185" s="21">
+      <c r="E185" s="13">
         <v>44181</v>
       </c>
-      <c r="F185" s="24">
-        <v>2</v>
-      </c>
-      <c r="G185" s="24">
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="G185">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="18">
+      <c r="A186" s="10">
         <v>44182</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C186">
         <v>5</v>
       </c>
-      <c r="D186" s="24">
+      <c r="D186">
         <v>44139</v>
       </c>
-      <c r="E186" s="18">
+      <c r="E186" s="10">
         <v>44182</v>
       </c>
-      <c r="F186" s="24">
-        <v>2</v>
-      </c>
-      <c r="G186" s="24">
+      <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="G186">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="21">
+      <c r="A187" s="13">
         <v>44183</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C187">
         <v>5</v>
       </c>
-      <c r="D187" s="24">
+      <c r="D187">
         <v>44139</v>
       </c>
-      <c r="E187" s="21">
+      <c r="E187" s="13">
         <v>44183</v>
       </c>
-      <c r="F187" s="24">
-        <v>2</v>
-      </c>
-      <c r="G187" s="24">
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="18">
+      <c r="A188" s="10">
         <v>44184</v>
       </c>
-      <c r="B188" s="16" t="s">
+      <c r="B188" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C188">
         <v>5</v>
       </c>
-      <c r="D188" s="24">
+      <c r="D188">
         <v>44139</v>
       </c>
-      <c r="E188" s="18">
+      <c r="E188" s="10">
         <v>44184</v>
       </c>
-      <c r="F188" s="24">
-        <v>2</v>
-      </c>
-      <c r="G188" s="24">
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="21">
+      <c r="A189" s="13">
         <v>44185</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="B189" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C189">
         <v>5</v>
       </c>
-      <c r="D189" s="24">
+      <c r="D189">
         <v>44139</v>
       </c>
-      <c r="E189" s="21">
+      <c r="E189" s="13">
         <v>44185</v>
       </c>
-      <c r="F189" s="24">
-        <v>2</v>
-      </c>
-      <c r="G189" s="24">
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="18">
+      <c r="A190" s="10">
         <v>44186</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C190">
         <v>5</v>
       </c>
-      <c r="D190" s="24">
+      <c r="D190">
         <v>44139</v>
       </c>
-      <c r="E190" s="18">
+      <c r="E190" s="10">
         <v>44186</v>
       </c>
-      <c r="F190" s="24">
-        <v>2</v>
-      </c>
-      <c r="G190" s="24">
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="21">
+      <c r="A191" s="13">
         <v>44187</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="B191" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C191">
         <v>5</v>
       </c>
-      <c r="D191" s="24">
+      <c r="D191">
         <v>44139</v>
       </c>
-      <c r="E191" s="21">
+      <c r="E191" s="13">
         <v>44187</v>
       </c>
-      <c r="F191" s="24">
-        <v>2</v>
-      </c>
-      <c r="G191" s="24">
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="18">
+      <c r="A192" s="10">
         <v>44188</v>
       </c>
-      <c r="B192" s="16" t="s">
+      <c r="B192" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C192">
         <v>5</v>
       </c>
-      <c r="D192" s="24">
+      <c r="D192">
         <v>44139</v>
       </c>
-      <c r="E192" s="18">
+      <c r="E192" s="10">
         <v>44188</v>
       </c>
-      <c r="F192" s="24">
-        <v>2</v>
-      </c>
-      <c r="G192" s="24">
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" s="13">
+        <v>44189</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" s="25">
+        <v>5</v>
+      </c>
+      <c r="D193" s="25">
+        <v>44196</v>
+      </c>
+      <c r="E193" s="13">
+        <v>44189</v>
+      </c>
+      <c r="F193" s="25">
+        <v>2</v>
+      </c>
+      <c r="G193" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="10">
+        <v>44190</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" s="25">
+        <v>5</v>
+      </c>
+      <c r="D194" s="25">
+        <v>44196</v>
+      </c>
+      <c r="E194" s="10">
+        <v>44190</v>
+      </c>
+      <c r="F194" s="25">
+        <v>2</v>
+      </c>
+      <c r="G194" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="13">
+        <v>44191</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" s="25">
+        <v>5</v>
+      </c>
+      <c r="D195" s="25">
+        <v>44196</v>
+      </c>
+      <c r="E195" s="13">
+        <v>44191</v>
+      </c>
+      <c r="F195" s="25">
+        <v>2</v>
+      </c>
+      <c r="G195" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="10">
+        <v>44192</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" s="25">
+        <v>5</v>
+      </c>
+      <c r="D196" s="25">
+        <v>44196</v>
+      </c>
+      <c r="E196" s="10">
+        <v>44192</v>
+      </c>
+      <c r="F196" s="25">
+        <v>2</v>
+      </c>
+      <c r="G196" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="13">
+        <v>44193</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" s="25">
+        <v>5</v>
+      </c>
+      <c r="D197" s="25">
+        <v>44196</v>
+      </c>
+      <c r="E197" s="13">
+        <v>44193</v>
+      </c>
+      <c r="F197" s="25">
+        <v>2</v>
+      </c>
+      <c r="G197" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" s="10">
+        <v>44194</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198" s="25">
+        <v>5</v>
+      </c>
+      <c r="D198" s="25">
+        <v>44196</v>
+      </c>
+      <c r="E198" s="10">
+        <v>44194</v>
+      </c>
+      <c r="F198" s="25">
+        <v>2</v>
+      </c>
+      <c r="G198" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199" s="25">
+        <v>5</v>
+      </c>
+      <c r="D199" s="25">
+        <v>44196</v>
+      </c>
+      <c r="E199" s="13">
+        <v>44195</v>
+      </c>
+      <c r="F199" s="25">
+        <v>2</v>
+      </c>
+      <c r="G199" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" s="13">
+        <v>44196</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
+      <c r="E200" s="10">
+        <v>44196</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
         <v>0</v>
       </c>
     </row>
